--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitLab\HoneywellPOSReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D567958-C1EC-4A79-A9F8-03D5BA87A825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A15DA2-5682-431D-958E-DB67ECEC193A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{698DCE2A-C0F5-4502-8A07-EE6F5CA899B3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="1">
   <si>
     <t>test123</t>
   </si>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D35CA1-4317-4F03-96CF-E98EB31A317B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,6 +423,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitLab\HoneywellPOSReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A15DA2-5682-431D-958E-DB67ECEC193A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0A633A-2AFD-47FE-9F77-0E7F74A2BD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{698DCE2A-C0F5-4502-8A07-EE6F5CA899B3}"/>
+    <workbookView xWindow="57480" yWindow="1500" windowWidth="29040" windowHeight="15720" xr2:uid="{698DCE2A-C0F5-4502-8A07-EE6F5CA899B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="David Johnson - Personal View" guid="{49D1754E-AD7C-451C-B7A4-7D202DFF83FF}" mergeInterval="0" personalView="1" maximized="1" xWindow="3832" yWindow="100" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="2">
   <si>
     <t>test123</t>
+  </si>
+  <si>
+    <t>dave</t>
   </si>
 </sst>
 </file>
@@ -91,6 +97,176 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0D1B6ED5-F8DA-4EFD-8896-0DE1D8946BE2}" diskRevisions="1" revisionId="20" version="2">
+  <header guid="{2A158477-B7EB-42ED-A727-CA75917BCA7D}" dateTime="2025-02-14T23:23:52" maxSheetId="2" userName="David Johnson" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0D1B6ED5-F8DA-4EFD-8896-0DE1D8946BE2}" dateTime="2025-02-14T23:24:11" maxSheetId="2" userName="David Johnson" r:id="rId2" minRId="1" maxRId="20">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="1">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="1">
+    <nc r="D5" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="5" sId="1">
+    <nc r="D6" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="1">
+    <nc r="D7" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="7" sId="1">
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="1">
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="1">
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="10" sId="1">
+    <nc r="D11" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="1">
+    <nc r="D12" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="1">
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="1">
+    <nc r="D14" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="1">
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="15" sId="1">
+    <nc r="D16" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="1">
+    <nc r="D17" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="1">
+    <nc r="D18" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="1">
+    <nc r="D19" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="1">
+    <nc r="D20" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="20" sId="1">
+    <nc r="D21" t="inlineStr">
+      <is>
+        <t>dave</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{0D1B6ED5-F8DA-4EFD-8896-0DE1D8946BE2}" name="David Johnson" id="-990268102" dateTime="2025-02-14T23:23:52"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,120 +586,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D35CA1-4317-4F03-96CF-E98EB31A317B}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{49D1754E-AD7C-451C-B7A4-7D202DFF83FF}">
+      <selection activeCell="E8" sqref="E8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>